--- a/DATA_goal/Junction_Flooding_61.xlsx
+++ b/DATA_goal/Junction_Flooding_61.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41493.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46.85</v>
+        <v>4.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.75</v>
+        <v>3.88</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>57.93</v>
+        <v>5.79</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.99</v>
+        <v>2.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.45</v>
+        <v>1.14</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.47</v>
+        <v>1.95</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.52</v>
+        <v>2.45</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>258.18</v>
+        <v>25.82</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.57</v>
+        <v>4.86</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.19</v>
+        <v>3.22</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.86</v>
+        <v>2.89</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.1</v>
+        <v>5.11</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41493.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.62</v>
+        <v>2.16</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.55</v>
+        <v>1.56</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>46.38</v>
+        <v>4.64</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38.36</v>
+        <v>3.84</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>65.98999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.18</v>
+        <v>2.62</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.54</v>
+        <v>1.95</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.96</v>
+        <v>2.4</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>250.21</v>
+        <v>25.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>47.34</v>
+        <v>4.73</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.6</v>
+        <v>3.16</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.05</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.93</v>
+        <v>3.19</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.36</v>
+        <v>1.24</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.48</v>
+        <v>1.95</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>59.68</v>
+        <v>5.97</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.52</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41493.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.99</v>
+        <v>2.3</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.02</v>
+        <v>1.9</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.48</v>
+        <v>3.65</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>120.88</v>
+        <v>12.09</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.67</v>
+        <v>2.37</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="Y4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AD4" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.04</v>
+        <v>3.3</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41493.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.42</v>
+        <v>2.04</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.95</v>
+        <v>0.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>60.21</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>3.88</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.5</v>
+        <v>1.85</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41493.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41493.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P7" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>5.22</v>
-      </c>
       <c r="Q7" s="4" t="n">
-        <v>3.29</v>
+        <v>0.33</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB7" s="4" t="n">
         <v>0.28</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>49.84</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>2.79</v>
-      </c>
       <c r="AC7" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41493.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>29.92</v>
+        <v>2.99</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>24.73</v>
+        <v>2.47</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>38.44</v>
+        <v>3.84</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>16.75</v>
+        <v>1.68</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>157.46</v>
+        <v>15.75</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>30.16</v>
+        <v>3.02</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>20.27</v>
+        <v>2.03</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>19.15</v>
+        <v>1.92</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>34.58</v>
+        <v>3.46</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41493.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>29.1</v>
+        <v>2.91</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>24.06</v>
+        <v>2.41</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>41.15</v>
+        <v>4.11</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>152.91</v>
+        <v>15.29</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>29.45</v>
+        <v>2.95</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>19.81</v>
+        <v>1.98</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>37.35</v>
+        <v>3.74</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41493.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>20.47</v>
+        <v>2.05</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.23</v>
+        <v>1.52</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>44.38</v>
+        <v>4.44</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>36.69</v>
+        <v>3.67</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.11</v>
+        <v>1.61</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>61.36</v>
+        <v>6.14</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>24.78</v>
+        <v>2.48</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.51</v>
+        <v>1.65</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>18.81</v>
+        <v>1.88</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>22.85</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>236.46</v>
+        <v>23.65</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>44.77</v>
+        <v>4.48</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>30.2</v>
+        <v>3.02</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>30.04</v>
+        <v>3</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.55</v>
+        <v>1.36</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>18.76</v>
+        <v>1.88</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>55.62</v>
+        <v>5.56</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_61.xlsx
+++ b/DATA_goal/Junction_Flooding_61.xlsx
@@ -453,7 +453,7 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>40750.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.7</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.66</v>
+        <v>26.57</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.87</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.39</v>
+        <v>43.89</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.56</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.95</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.01</v>
+        <v>40.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.26</v>
+        <v>32.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.4</v>
+        <v>14.04</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.1</v>
+        <v>51.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.93</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.39</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>20.99</v>
+        <v>209.93</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.98</v>
+        <v>39.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.71</v>
+        <v>27.12</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.36</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.54</v>
+        <v>25.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.56</v>
+        <v>45.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_61.xlsx
+++ b/DATA_goal/Junction_Flooding_61.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,36 +445,36 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>40750.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
@@ -759,94 +759,94 @@
         <v>40750.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.08</v>
+        <v>4.083</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.97</v>
+        <v>6.972</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.7</v>
+        <v>4.697</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.616</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.91</v>
+        <v>7.914</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>2.94</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.145</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>2.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.8</v>
+        <v>3.802</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.49</v>
+        <v>1.488</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>3.09</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.75</v>
+        <v>1.749</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.589</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.57</v>
+        <v>26.574</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.2</v>
+        <v>6.196</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>2.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.43</v>
+        <v>4.435</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.56</v>
+        <v>2.557</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.286</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.35</v>
+        <v>3.354</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.804</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.062</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.02</v>
+        <v>2.022</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.88</v>
+        <v>2.876</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>5.87</v>
@@ -855,7 +855,7 @@
         <v>0.88</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.25</v>
+        <v>2.246</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.07</v>
+        <v>5.073</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.34</v>
+        <v>3.343</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>9.865</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.49</v>
+        <v>7.493</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.97</v>
+        <v>2.967</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.1</v>
+        <v>12.103</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.9</v>
+        <v>4.899</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.03</v>
+        <v>2.029</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>3.13</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.77</v>
+        <v>3.769</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.72</v>
+        <v>4.715</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.082</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.84</v>
+        <v>2.842</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.76</v>
+        <v>4.762</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.74</v>
+        <v>2.743</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>43.89</v>
+        <v>43.889</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>9.362</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.39</v>
+        <v>3.388</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.5</v>
+        <v>6.499</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.56</v>
+        <v>3.564</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>0.44</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.64</v>
+        <v>5.638</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.74</v>
+        <v>2.745</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.05</v>
+        <v>2.047</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.95</v>
+        <v>2.952</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.12</v>
+        <v>4.125</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.11</v>
+        <v>10.109</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.57</v>
+        <v>1.572</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.67</v>
+        <v>3.672</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>32.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>26.63</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>169.94</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>32.62</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.31</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_61.xlsx
+++ b/DATA_goal/Junction_Flooding_61.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -970,100 +970,204 @@
         <v>18.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.81</v>
+        <v>13.806</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.833</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.05</v>
+        <v>40.055</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.64</v>
+        <v>32.638</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.04</v>
+        <v>14.039</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.02</v>
+        <v>51.025</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.87</v>
+        <v>21.868</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.68</v>
+        <v>9.679</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>14.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.93</v>
+        <v>15.934</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>17.39</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.59</v>
+        <v>4.586</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.87</v>
+        <v>13.866</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.39</v>
+        <v>20.388</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.8</v>
+        <v>11.797</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.444</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>209.93</v>
+        <v>209.935</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.82</v>
+        <v>39.816</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.38</v>
+        <v>13.376</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>27.12</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.36</v>
+        <v>14.355</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.87</v>
+        <v>1.871</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.38</v>
+        <v>25.376</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>11.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.94</v>
+        <v>9.938000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.12</v>
+        <v>12.116</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.87</v>
+        <v>16.871</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.61</v>
+        <v>45.607</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.36</v>
+        <v>7.363</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.31</v>
+        <v>16.315</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40750.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>169.94</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.31</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_61.xlsx
+++ b/DATA_goal/Junction_Flooding_61.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -970,204 +970,100 @@
         <v>18.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.806</v>
+        <v>13.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.833</v>
+        <v>0.83</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.055</v>
+        <v>40.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.638</v>
+        <v>32.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.039</v>
+        <v>14.04</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.025</v>
+        <v>51.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.868</v>
+        <v>21.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.679</v>
+        <v>9.68</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>14.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.934</v>
+        <v>15.93</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>17.39</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.586</v>
+        <v>4.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.866</v>
+        <v>13.87</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.388</v>
+        <v>20.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.797</v>
+        <v>11.8</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.444</v>
+        <v>0.44</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>209.935</v>
+        <v>209.93</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.816</v>
+        <v>39.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.376</v>
+        <v>13.38</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>27.12</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.355</v>
+        <v>14.36</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.871</v>
+        <v>1.87</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.376</v>
+        <v>25.38</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>11.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.938000000000001</v>
+        <v>9.94</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.116</v>
+        <v>12.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.871</v>
+        <v>16.87</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.607</v>
+        <v>45.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.363</v>
+        <v>7.36</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.315</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>32.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>26.63</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>169.94</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>32.62</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.31</v>
+        <v>16.31</v>
       </c>
     </row>
   </sheetData>
